--- a/src/views/import/副本员工导入模板.xlsx
+++ b/src/views/import/副本员工导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\前端55\就业班\Vue项目实战\HR人资中介\work\hrsaas\src\views\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF4138E-B463-4D5C-9B81-9B40E8D6B24E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5230C82-A271-4008-8B40-86EC267D9B4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>高老老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总裁办</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -398,7 +406,7 @@
     <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>13243134521</v>
       </c>
@@ -431,8 +442,11 @@
       <c r="E2">
         <v>20089</v>
       </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13244321189</v>
       </c>
@@ -448,8 +462,11 @@
       <c r="E3">
         <v>20099</v>
       </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13411115799</v>
       </c>
@@ -464,6 +481,9 @@
       </c>
       <c r="E4">
         <v>20189</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
